--- a/data/q.xlsx
+++ b/data/q.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>VN</t>
   </si>
@@ -145,6 +145,12 @@
   <si>
     <t>เจาะเลือด</t>
   </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t/>
+  </si>
 </sst>
 </file>
 
@@ -190,7 +196,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0d904f"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -793,23 +799,47 @@
     <row r="5" ht="18.75" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="7">
+        <v>101</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="5">
+        <v>10</v>
+      </c>
+      <c r="J5" s="8">
+        <v>10</v>
+      </c>
+      <c r="K5" s="8">
+        <v>10</v>
+      </c>
+      <c r="L5" s="8">
+        <v>35</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
